--- a/medicine/Enfance/Paul_Faucher_(éditeur)/Paul_Faucher_(éditeur).xlsx
+++ b/medicine/Enfance/Paul_Faucher_(éditeur)/Paul_Faucher_(éditeur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Faucher_(%C3%A9diteur)</t>
+          <t>Paul_Faucher_(éditeur)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Faucher, né le 24 novembre 1898 à Pougues-les-Eaux (Nièvre) et mort le 14 mars 1967 à Paris 5e[1], fut directeur de collection. Pionnier de l'Éducation nouvelle et fervent connaisseur de la pédagogie active, il fonde en 1931 les Albums du Père Castor (Editions Flammarion, Paris).
-Auteur de livres pour la jeunesse, il a publié sous le pseudonyme de Paul François La grande panthère noire, Trois petits cochons, La chèvre et les biquets, Les bons amis, Bravo tortue ou encore Chante pinson dans la collection Père Castor chez Flammarion[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Faucher, né le 24 novembre 1898 à Pougues-les-Eaux (Nièvre) et mort le 14 mars 1967 à Paris 5e, fut directeur de collection. Pionnier de l'Éducation nouvelle et fervent connaisseur de la pédagogie active, il fonde en 1931 les Albums du Père Castor (Editions Flammarion, Paris).
+Auteur de livres pour la jeunesse, il a publié sous le pseudonyme de Paul François La grande panthère noire, Trois petits cochons, La chèvre et les biquets, Les bons amis, Bravo tortue ou encore Chante pinson dans la collection Père Castor chez Flammarion.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Faucher_(%C3%A9diteur)</t>
+          <t>Paul_Faucher_(éditeur)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Faucher se forme à la mécanique ainsi qu'au métier d'instituteur. En 1916 il s'engage comme chef-brigadier, participe à la bataille de Verdun comme artilleur et rapidement des responsabilités importantes lui sont confiées. En 1920 il est employé à l'Union mutuelle centrale des victimes et dommages causés par la Guerre et s'initie aux aspects juridiques, commerciaux, et techniques de l'entreprise. Mais son goût pour les livres et la lecture l'incite à changer de voie. 
 En 1921 Paul Faucher répond à une annonce et devient commis libraire dans une librairie Flammarion parisienne. Six mois plus tard, son chef de service lui confie le département Beaux livres de la librairie Flammarion Lyonnaise, il y développe de nouveaux services et rédige un bulletin d'information dédié à la clientèle.
@@ -544,7 +558,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_Faucher_(%C3%A9diteur)</t>
+          <t>Paul_Faucher_(éditeur)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -562,7 +576,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1941 : Mes amis, illustrations de Feodor Rojankovsky, collection Père Castor n°97, Flammarion
 1941 : Rôles de bêtes, illustrations de Feodor Rojankovsky, Père Castor no 100
